--- a/src/configFiles/config.xlsx
+++ b/src/configFiles/config.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/configFiles/config.xlsx
+++ b/src/configFiles/config.xlsx
@@ -58,7 +58,7 @@
     <t>C:\\Selenium\\canvasAutProject\\src\\Template\\TestResult.xlsx</t>
   </si>
   <si>
-    <t>C:\\Selenium\\canvasAutProjecte\\src\\results\\TestResult</t>
+    <t>C:\\Selenium\\canvasAutProject\\src\\results\\TestResult</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
